--- a/docs/設計/機能一覧表.xlsx
+++ b/docs/設計/機能一覧表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94884d7d56b8c7b8/Desktop/卒業制作/設計書/基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94884d7d56b8c7b8/Desktop/workspace/workspace-sugimura/Portfolio/docs/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="345" documentId="13_ncr:1_{5803A31C-5DDC-49FD-89AD-00E0C5169C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C54927E9-764F-46D6-A821-95DEF1516DEF}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="13_ncr:1_{5803A31C-5DDC-49FD-89AD-00E0C5169C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A27F66DC-A3D4-4A36-AC26-906EF9A40523}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">機能一覧表!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual"/>
+  <calcPr calcId="181029" calcMode="manual" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -894,18 +894,186 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -915,6 +1083,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -924,188 +1101,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1160,8 +1160,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8172450" y="161925"/>
-          <a:ext cx="1698625" cy="168275"/>
+          <a:off x="7549415" y="147587"/>
+          <a:ext cx="1569285" cy="153557"/>
           <a:chOff x="733" y="95"/>
           <a:chExt cx="180" cy="17"/>
         </a:xfrm>
@@ -1338,10 +1338,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1643,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
@@ -3297,7 +3293,7 @@
   </sheetPr>
   <dimension ref="A1:FQ25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
@@ -3313,146 +3309,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="113" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="115"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="92"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="113" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="115"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="92"/>
     </row>
     <row r="4" spans="1:173" s="4" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="110" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="110" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="110" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="111"/>
-      <c r="AB4" s="111"/>
-      <c r="AC4" s="112"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
@@ -3599,381 +3595,381 @@
       <c r="FQ4" s="3"/>
     </row>
     <row r="5" spans="1:173" ht="24.75" customHeight="1">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
       <c r="I5" s="95"/>
-      <c r="J5" s="100" t="s">
+      <c r="J5" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="71" t="s">
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="73"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="79"/>
     </row>
     <row r="6" spans="1:173" ht="24.75" customHeight="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="100" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="74" t="s">
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="76"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="107"/>
     </row>
     <row r="7" spans="1:173" ht="24.75" customHeight="1">
-      <c r="A7" s="117"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="100" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="74" t="s">
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="76"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="107"/>
     </row>
     <row r="8" spans="1:173" ht="24.75" customHeight="1">
-      <c r="A8" s="117"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="103" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="100" t="s">
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="74" t="s">
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="76"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="107"/>
     </row>
     <row r="9" spans="1:173" ht="24.75" customHeight="1">
-      <c r="A9" s="117"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="103" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="100" t="s">
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="74" t="s">
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="76"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="107"/>
     </row>
     <row r="10" spans="1:173" ht="66" customHeight="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="103" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="100" t="s">
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="71" t="s">
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="73"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="79"/>
     </row>
     <row r="11" spans="1:173" s="31" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="83" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="106" t="s">
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="71" t="s">
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="73"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="79"/>
     </row>
     <row r="12" spans="1:173" ht="24.75" customHeight="1">
-      <c r="A12" s="122"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="100" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="74" t="s">
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="76"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="107"/>
     </row>
     <row r="13" spans="1:173" ht="24.75" customHeight="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="100" t="s">
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
-      <c r="P13" s="74" t="s">
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="76"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="107"/>
     </row>
     <row r="14" spans="1:173" ht="24.75" customHeight="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="61" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="100" t="s">
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="71" t="s">
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="73"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="79"/>
     </row>
     <row r="15" spans="1:173" ht="24.75" customHeight="1">
-      <c r="A15" s="125"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="94"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="28" t="s">
         <v>40</v>
       </c>
@@ -3982,113 +3978,113 @@
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
       <c r="O15" s="30"/>
-      <c r="P15" s="71" t="s">
+      <c r="P15" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="73"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="79"/>
     </row>
     <row r="16" spans="1:173" ht="24.75" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="103" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="100" t="s">
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="71" t="s">
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="73"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="79"/>
     </row>
     <row r="17" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A17" s="118"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="100" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="100" t="s">
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="71" t="s">
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="73"/>
-    </row>
-    <row r="18" spans="1:29" ht="39.75" customHeight="1">
-      <c r="A18" s="77" t="s">
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="79"/>
+    </row>
+    <row r="18" spans="1:29" ht="75.75" customHeight="1">
+      <c r="A18" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="61" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="29" t="s">
         <v>53</v>
       </c>
@@ -4097,33 +4093,33 @@
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="71" t="s">
+      <c r="P18" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
     </row>
     <row r="19" spans="1:29" ht="24.75" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="94"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="122"/>
       <c r="J19" s="32" t="s">
         <v>54</v>
       </c>
@@ -4132,278 +4128,233 @@
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
       <c r="O19" s="33"/>
-      <c r="P19" s="67" t="s">
+      <c r="P19" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="68"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
     </row>
     <row r="20" spans="1:29" ht="42" customHeight="1">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="57" t="s">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
       <c r="I20" s="95"/>
-      <c r="J20" s="100" t="s">
+      <c r="J20" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="71" t="s">
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="73"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="79"/>
     </row>
     <row r="21" spans="1:29" ht="21" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="100" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="74" t="s">
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="76"/>
+      <c r="Q21" s="106"/>
+      <c r="R21" s="106"/>
+      <c r="S21" s="106"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="107"/>
     </row>
     <row r="22" spans="1:29" ht="21" customHeight="1">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="74" t="s">
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="76"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="107"/>
     </row>
     <row r="23" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="57" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="61" t="s">
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="67" t="s">
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="78"/>
     </row>
     <row r="24" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
-      <c r="Z24" s="70"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="70"/>
-      <c r="AC24" s="70"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="124"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="127"/>
     </row>
     <row r="25" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="70"/>
-      <c r="AC25" s="70"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="127"/>
+      <c r="R25" s="127"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="127"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="127"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="127"/>
+      <c r="AA25" s="127"/>
+      <c r="AB25" s="127"/>
+      <c r="AC25" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A5:E10"/>
-    <mergeCell ref="A11:E15"/>
-    <mergeCell ref="A16:E17"/>
-    <mergeCell ref="A18:E19"/>
-    <mergeCell ref="P18:AC18"/>
-    <mergeCell ref="P19:AC19"/>
-    <mergeCell ref="P17:AC17"/>
-    <mergeCell ref="P15:AC15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="P14:AC14"/>
-    <mergeCell ref="P16:AC16"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="P4:AC4"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="A3:Y3"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F5:I7"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="P5:AC5"/>
-    <mergeCell ref="P6:AC6"/>
-    <mergeCell ref="P7:AC7"/>
-    <mergeCell ref="P8:AC8"/>
-    <mergeCell ref="P9:AC9"/>
-    <mergeCell ref="A20:E25"/>
-    <mergeCell ref="F11:I13"/>
-    <mergeCell ref="F14:I15"/>
-    <mergeCell ref="F18:I19"/>
-    <mergeCell ref="F20:I22"/>
-    <mergeCell ref="F23:I25"/>
     <mergeCell ref="J23:O25"/>
     <mergeCell ref="P23:AC25"/>
     <mergeCell ref="P10:AC10"/>
@@ -4419,11 +4370,56 @@
     <mergeCell ref="J12:O12"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="J14:O14"/>
+    <mergeCell ref="A20:E25"/>
+    <mergeCell ref="F11:I13"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="F18:I19"/>
+    <mergeCell ref="F20:I22"/>
+    <mergeCell ref="F23:I25"/>
+    <mergeCell ref="P5:AC5"/>
+    <mergeCell ref="P6:AC6"/>
+    <mergeCell ref="P7:AC7"/>
+    <mergeCell ref="P8:AC8"/>
+    <mergeCell ref="P9:AC9"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F5:I7"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="P4:AC4"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A3:Y3"/>
+    <mergeCell ref="A5:E10"/>
+    <mergeCell ref="A11:E15"/>
+    <mergeCell ref="A16:E17"/>
+    <mergeCell ref="A18:E19"/>
+    <mergeCell ref="P18:AC18"/>
+    <mergeCell ref="P19:AC19"/>
+    <mergeCell ref="P17:AC17"/>
+    <mergeCell ref="P15:AC15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="P14:AC14"/>
+    <mergeCell ref="P16:AC16"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2004 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
